--- a/绘图/链表示意图.xlsx
+++ b/绘图/链表示意图.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7905"/>
+    <workbookView windowWidth="19410" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="链表（没有哨兵节点）" sheetId="1" r:id="rId1"/>
+    <sheet name="链表_添加操作（没有哨兵节点）" sheetId="2" r:id="rId1"/>
+    <sheet name="链表_添加操作（哨兵节点）" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>边界处理：
 1. 链表为空时，代码能否能正常工作
@@ -24,6 +25,102 @@
   </si>
   <si>
     <t>head</t>
+  </si>
+  <si>
+    <t>第一步：找到 index = 2 的前一个节点</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>在没有哨兵节点时，需要特别考虑当链表为空或者链表中对第一个节点的特殊处理，否则很容易出现问题</t>
+  </si>
+  <si>
+    <r>
+      <t>对于在单链表的任意位置添加节点时，基本思想是要先找到待添加位置的前一个节点，比如在 index =  2 的位置插入一个元素，则需要先找到 index = 1的节点，然后进行相关的操作。（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关键在于找到插入位置的前一个节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+另外，对于在第一个位置插入的操作比较特殊，因为第一个节点没有前节点，所以对于没有哨兵节点的单链表来说，需要进行特殊的处理。（增加了代码的复杂性）
+解决的办法或技巧就是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用哨兵节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>第二步：设置新节点的 next：node-&gt;next = prev-&gt;next；</t>
+  </si>
+  <si>
+    <t>第三步：更新前一节点，使其指向插入的新节点：prev-&gt;next = node；</t>
+  </si>
+  <si>
+    <t>插入后的新链表</t>
+  </si>
+  <si>
+    <t>dummy_head</t>
+  </si>
+  <si>
+    <t>在没有哨兵节点时，需要特别考虑当链表为空或者链表中对第一个节点的特殊处理，否则很容易出现问题；
+为了解决在没有哨兵节点的时候对特殊情况的处理，可以使用一个技巧：引入虚拟头节点，简化链表的逻辑操作。</t>
+  </si>
+  <si>
+    <t>空链表</t>
+  </si>
+  <si>
+    <t>查找前一个节点</t>
+  </si>
+  <si>
+    <t>在位置 index = =  2 插入新节点 （关键是要找到 index = =  2 的前一个节点），具体查找过程如下：</t>
+  </si>
+  <si>
+    <t>初始化</t>
+  </si>
+  <si>
+    <t>i = =  0</t>
+  </si>
+  <si>
+    <t>i = =  1</t>
   </si>
 </sst>
 </file>
@@ -36,10 +133,25 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,12 +515,61 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,6 +603,37 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -546,152 +738,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,19 +896,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +1034,7 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -848,7 +1085,7 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -899,7 +1136,7 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -950,7 +1187,7 @@
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -977,6 +1214,2751 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="2492375"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477760" y="2502535"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896985" y="2493010"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="2714625"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8909685" y="3759835"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2073275"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="5426075"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477760" y="5436235"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896985" y="5426710"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="5724525"/>
+          <a:ext cx="0" cy="263525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="5006975"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>303847</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>484822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132397</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="曲线连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7985125" y="6000750"/>
+          <a:ext cx="1095375" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="8283575"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477760" y="8293735"/>
+          <a:ext cx="475615" cy="1228090"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896985" y="8284210"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="8505825"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="7864475"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>303847</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>484822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132397</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="曲线连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8019415" y="8759190"/>
+          <a:ext cx="1027430" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="10798175"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477760" y="10808335"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896985" y="10798810"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="11020425"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306685" y="10798810"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="619125"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477760" y="629285"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896985" y="619760"/>
+          <a:ext cx="494665" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="828675"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="2073275"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="2295525"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="2073275"/>
+          <a:ext cx="428625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8830310" y="2083435"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306685" y="2073910"/>
+          <a:ext cx="513715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="4848225"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="6931025"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="7140575"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="6931025"/>
+          <a:ext cx="428625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8830310" y="6941185"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306685" y="6931660"/>
+          <a:ext cx="513715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="7966075"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="6530975"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="9420225"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="9629775"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="9420225"/>
+          <a:ext cx="428625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8830310" y="9430385"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306685" y="9420860"/>
+          <a:ext cx="513715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="10455275"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6965950" y="9020175"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="11922125"/>
+          <a:ext cx="495300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="12144375"/>
+          <a:ext cx="0" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="11922125"/>
+          <a:ext cx="428625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8830310" y="11932285"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306685" y="11922760"/>
+          <a:ext cx="513715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="12969875"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="11522075"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1246,10 +4228,364 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="32.25" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="4.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="4.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="4.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12">
+        <v>2</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="12">
+        <v>4</v>
+      </c>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="6:16">
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="12">
+        <v>2</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="12">
+        <v>4</v>
+      </c>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="1:13">
+      <c r="A16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="L16" s="12">
+        <v>8</v>
+      </c>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="I21" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:16">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="12">
+        <v>2</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="12">
+        <v>4</v>
+      </c>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="12:13">
+      <c r="L28" s="12">
+        <v>8</v>
+      </c>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="12:12">
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="23"/>
+      <c r="I32" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="6:16">
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="12">
+        <v>2</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="12">
+        <v>4</v>
+      </c>
+      <c r="P34" s="15"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="33" customHeight="1" spans="12:13">
+      <c r="L39" s="12">
+        <v>8</v>
+      </c>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="33" customHeight="1" spans="6:19">
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="12">
+        <v>8</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="12">
+        <v>2</v>
+      </c>
+      <c r="P44" s="17"/>
+      <c r="R44" s="12">
+        <v>4</v>
+      </c>
+      <c r="S44" s="15"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="F42:O42"/>
+    <mergeCell ref="A1:C10"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="A16:C24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1289,22 +4625,22 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="F3" s="4">
+      <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="4">
+      <c r="G3" s="13"/>
+      <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="L3" s="4">
+      <c r="J3" s="13"/>
+      <c r="L3" s="12">
         <v>2</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="O3" s="4">
+      <c r="M3" s="17"/>
+      <c r="O3" s="12">
         <v>4</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
@@ -1315,7 +4651,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1334,19 +4670,354 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="33" customHeight="1" spans="1:19">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="O9" s="12">
+        <v>2</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="R9" s="12">
+        <v>4</v>
+      </c>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="69" customHeight="1" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="6:9">
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="18"/>
+    </row>
+    <row r="24" spans="3:20">
+      <c r="C24" s="8"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="19"/>
+    </row>
+    <row r="25" spans="3:20">
+      <c r="C25" s="9"/>
+      <c r="F25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="9"/>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" ht="32" customHeight="1" spans="3:20">
+      <c r="C27" s="9"/>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="L27" s="12">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="O27" s="12">
+        <v>2</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="R27" s="12">
+        <v>4</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" spans="3:20">
+      <c r="C28" s="9"/>
+      <c r="T28" s="19"/>
+    </row>
+    <row r="29" spans="3:20">
+      <c r="C29" s="9"/>
+      <c r="F29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="19"/>
+    </row>
+    <row r="30" spans="3:20">
+      <c r="C30" s="9"/>
+      <c r="T30" s="19"/>
+    </row>
+    <row r="31" ht="32" customHeight="1" spans="3:20">
+      <c r="C31" s="9"/>
+      <c r="O31" s="12">
+        <v>8</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="3:20">
+      <c r="C32" s="9"/>
+      <c r="O32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="3:20">
+      <c r="C33" s="9"/>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="3:20">
+      <c r="C34" s="9"/>
+      <c r="T34" s="19"/>
+    </row>
+    <row r="35" spans="3:20">
+      <c r="C35" s="9"/>
+      <c r="I35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="19"/>
+    </row>
+    <row r="36" spans="3:20">
+      <c r="C36" s="9"/>
+      <c r="T36" s="19"/>
+    </row>
+    <row r="37" ht="32" customHeight="1" spans="3:20">
+      <c r="C37" s="9"/>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="O37" s="12">
+        <v>2</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="R37" s="12">
+        <v>4</v>
+      </c>
+      <c r="S37" s="15"/>
+      <c r="T37" s="19"/>
+    </row>
+    <row r="38" spans="3:20">
+      <c r="C38" s="9"/>
+      <c r="T38" s="19"/>
+    </row>
+    <row r="39" spans="3:20">
+      <c r="C39" s="9"/>
+      <c r="F39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="19"/>
+    </row>
+    <row r="40" spans="3:20">
+      <c r="C40" s="9"/>
+      <c r="T40" s="19"/>
+    </row>
+    <row r="41" ht="33" customHeight="1" spans="3:20">
+      <c r="C41" s="9"/>
+      <c r="O41" s="12">
+        <v>8</v>
+      </c>
+      <c r="P41" s="17"/>
+      <c r="T41" s="19"/>
+    </row>
+    <row r="42" spans="3:20">
+      <c r="C42" s="9"/>
+      <c r="O42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="19"/>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="9"/>
+      <c r="T43" s="19"/>
+    </row>
+    <row r="44" spans="3:20">
+      <c r="C44" s="9"/>
+      <c r="T44" s="19"/>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="C45" s="9"/>
+      <c r="L45" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="19"/>
+    </row>
+    <row r="46" spans="3:20">
+      <c r="C46" s="9"/>
+      <c r="T46" s="19"/>
+    </row>
+    <row r="47" ht="33" customHeight="1" spans="3:20">
+      <c r="C47" s="9"/>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+      <c r="M47" s="13"/>
+      <c r="O47" s="12">
+        <v>2</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="R47" s="12">
+        <v>4</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="19"/>
+    </row>
+    <row r="48" spans="3:20">
+      <c r="C48" s="9"/>
+      <c r="T48" s="19"/>
+    </row>
+    <row r="49" spans="3:20">
+      <c r="C49" s="9"/>
+      <c r="F49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="19"/>
+    </row>
+    <row r="50" spans="3:20">
+      <c r="C50" s="9"/>
+      <c r="T50" s="19"/>
+    </row>
+    <row r="51" ht="31" customHeight="1" spans="3:20">
+      <c r="C51" s="9"/>
+      <c r="O51" s="12">
+        <v>8</v>
+      </c>
+      <c r="P51" s="17"/>
+      <c r="T51" s="19"/>
+    </row>
+    <row r="52" spans="3:20">
+      <c r="C52" s="9"/>
+      <c r="O52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="19"/>
+    </row>
+    <row r="53" spans="3:20">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A1:C10"/>
+    <mergeCell ref="A13:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/绘图/链表示意图.xlsx
+++ b/绘图/链表示意图.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7905" activeTab="1"/>
+    <workbookView windowWidth="19410" windowHeight="7905" tabRatio="887" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="链表_添加操作（没有哨兵节点）" sheetId="2" r:id="rId1"/>
-    <sheet name="链表_添加操作（哨兵节点）" sheetId="1" r:id="rId2"/>
+    <sheet name="链表-添加操作（没有哨兵节点）" sheetId="2" r:id="rId1"/>
+    <sheet name="链表-添加操作（哨兵节点）" sheetId="1" r:id="rId2"/>
+    <sheet name="链表-删除操作（哨兵节点）" sheetId="3" r:id="rId3"/>
+    <sheet name="链表的时间复杂度分析" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>边界处理：
 1. 链表为空时，代码能否能正常工作
@@ -108,7 +110,11 @@
     <t>空链表</t>
   </si>
   <si>
-    <t>查找前一个节点</t>
+    <t>查找前一个节点：从虚拟头结点开始遍历
+Node *prev =  dummy_head;
+for(int i = 0; i &lt;  index; ++i) {
+    prev =  prev-&gt;next;
+}</t>
   </si>
   <si>
     <t>在位置 index = =  2 插入新节点 （关键是要找到 index = =  2 的前一个节点），具体查找过程如下：</t>
@@ -117,10 +123,55 @@
     <t>初始化</t>
   </si>
   <si>
+    <t>遍历链表：从首元节点开始遍历
+Node *curr =  dummy_head-&gt;next;
+for(int i = 0; i &lt;  size; ++i) {
+    int elem = curr-&gt;elem;
+    curr =  curr-&gt;next;
+}</t>
+  </si>
+  <si>
     <t>i = =  0</t>
   </si>
   <si>
     <t>i = =  1</t>
+  </si>
+  <si>
+    <r>
+      <t>删除一个节点的关键思想是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到待删除节点的前一个节点</t>
+    </r>
+  </si>
+  <si>
+    <t>对于单链表来说：</t>
+  </si>
+  <si>
+    <t>添加操作</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>删除操作</t>
+  </si>
+  <si>
+    <t>修改操作</t>
+  </si>
+  <si>
+    <t>查找操作</t>
+  </si>
+  <si>
+    <t>如果只是对链表头进行操作，则时间复杂度是 O(1)</t>
   </si>
 </sst>
 </file>
@@ -883,19 +934,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -903,17 +960,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,12 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2415,7 +2472,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="619125"/>
+          <a:off x="6724650" y="619125"/>
           <a:ext cx="495300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2466,7 +2523,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477760" y="629285"/>
+          <a:off x="8049260" y="629285"/>
           <a:ext cx="494665" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2517,7 +2574,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8896985" y="619760"/>
+          <a:off x="9468485" y="619760"/>
           <a:ext cx="494665" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2568,7 +2625,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="828675"/>
+          <a:off x="6124575" y="828675"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2618,7 +2675,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="2073275"/>
+          <a:off x="6724650" y="2073275"/>
           <a:ext cx="495300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2669,7 +2726,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="2295525"/>
+          <a:off x="6124575" y="2295525"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2719,7 +2776,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="2073275"/>
+          <a:off x="8143875" y="2073275"/>
           <a:ext cx="428625" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2770,7 +2827,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8830310" y="2083435"/>
+          <a:off x="9401810" y="2083435"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2821,7 +2878,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306685" y="2073910"/>
+          <a:off x="10878185" y="2073910"/>
           <a:ext cx="513715" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2872,7 +2929,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="4848225"/>
+          <a:off x="6124575" y="4848225"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2922,7 +2979,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="6931025"/>
+          <a:off x="6724650" y="7635875"/>
           <a:ext cx="495300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2973,7 +3030,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="7140575"/>
+          <a:off x="6124575" y="7845425"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3023,7 +3080,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="6931025"/>
+          <a:off x="8143875" y="7635875"/>
           <a:ext cx="428625" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3074,7 +3131,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8830310" y="6941185"/>
+          <a:off x="9401810" y="7646035"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3125,7 +3182,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306685" y="6931660"/>
+          <a:off x="10878185" y="7636510"/>
           <a:ext cx="513715" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3176,7 +3233,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="7966075"/>
+          <a:off x="10858500" y="8670925"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3227,7 +3284,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="6530975"/>
+          <a:off x="6115050" y="7235825"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3277,7 +3334,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="9420225"/>
+          <a:off x="6724650" y="11169650"/>
           <a:ext cx="495300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3328,7 +3385,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="9629775"/>
+          <a:off x="6124575" y="11379200"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3378,7 +3435,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="9420225"/>
+          <a:off x="8143875" y="11169650"/>
           <a:ext cx="428625" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3429,7 +3486,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8830310" y="9430385"/>
+          <a:off x="9401810" y="11179810"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3480,7 +3537,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306685" y="9420860"/>
+          <a:off x="10878185" y="11170285"/>
           <a:ext cx="513715" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3531,7 +3588,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="10455275"/>
+          <a:off x="10858500" y="12204700"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3582,7 +3639,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6965950" y="9020175"/>
+          <a:off x="7537450" y="10769600"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3632,7 +3689,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="11922125"/>
+          <a:off x="6724650" y="13671550"/>
           <a:ext cx="495300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3683,7 +3740,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5553075" y="12144375"/>
+          <a:off x="6124575" y="13893800"/>
           <a:ext cx="0" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3733,7 +3790,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="11922125"/>
+          <a:off x="8143875" y="13671550"/>
           <a:ext cx="428625" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3784,7 +3841,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8830310" y="11932285"/>
+          <a:off x="9401810" y="13681710"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3835,7 +3892,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306685" y="11922760"/>
+          <a:off x="10878185" y="13672185"/>
           <a:ext cx="513715" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3886,7 +3943,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="12969875"/>
+          <a:off x="10858500" y="14719300"/>
           <a:ext cx="523875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3937,7 +3994,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="11522075"/>
+          <a:off x="8896350" y="13271500"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4230,336 +4287,336 @@
   <sheetPr/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="32.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="4.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="4.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="4.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="32.25" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="4.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="4.75" style="5" customWidth="1"/>
+    <col min="17" max="17" width="5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9" style="5"/>
+    <col min="19" max="19" width="4.875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="32" customHeight="1" spans="1:16">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="12">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="32" customHeight="1" spans="1:16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="12">
+      <c r="G3" s="17"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="12">
+      <c r="J3" s="17"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="16">
         <v>2</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="12">
+      <c r="M3" s="21"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="16">
         <v>4</v>
       </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="14" t="s">
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="14" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="6:16">
-      <c r="F11" s="12">
+    <row r="10" s="5" customFormat="1" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="6:16">
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="12">
+      <c r="G11" s="17"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="16">
         <v>1</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="12">
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="16">
         <v>2</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="12">
+      <c r="M11" s="21"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="16">
         <v>4</v>
       </c>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="P11" s="19"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" s="5" customFormat="1" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:13">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="L16" s="12">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="L16" s="16">
         <v>8</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="L17" s="1" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="L17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="F20" s="1" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="I21" s="14" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="F21" s="25"/>
+      <c r="I21" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:16">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="F23" s="12">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="F23" s="16">
         <v>0</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="12">
+      <c r="G23" s="17"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="12">
+      <c r="J23" s="17"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="16">
         <v>2</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="12">
+      <c r="M23" s="21"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="16">
         <v>4</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="33" customHeight="1" spans="12:13">
-      <c r="L28" s="12">
+      <c r="L28" s="16">
         <v>8</v>
       </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="12:12">
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="6:9">
-      <c r="F32" s="23"/>
-      <c r="I32" s="14" t="s">
+      <c r="F32" s="25"/>
+      <c r="I32" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="6:16">
-      <c r="F34" s="12">
+      <c r="F34" s="16">
         <v>0</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="12">
+      <c r="G34" s="17"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="16">
         <v>1</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="12">
+      <c r="J34" s="17"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="16">
         <v>2</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="12">
+      <c r="M34" s="21"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="16">
         <v>4</v>
       </c>
-      <c r="P34" s="15"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="33" customHeight="1" spans="12:13">
-      <c r="L39" s="12">
+      <c r="L39" s="16">
         <v>8</v>
       </c>
-      <c r="M39" s="13"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="12:12">
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="33" customHeight="1" spans="6:19">
-      <c r="F44" s="12">
+      <c r="F44" s="16">
         <v>0</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="12">
+      <c r="G44" s="17"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="16">
         <v>1</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="12">
+      <c r="J44" s="17"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="16">
         <v>8</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="12">
+      <c r="M44" s="21"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="16">
         <v>2</v>
       </c>
-      <c r="P44" s="17"/>
-      <c r="R44" s="12">
+      <c r="P44" s="21"/>
+      <c r="R44" s="16">
         <v>4</v>
       </c>
-      <c r="S44" s="15"/>
+      <c r="S44" s="19"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4584,433 +4641,435 @@
   <sheetPr/>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="32.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="4.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="4.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="4.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="39.75" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="4.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="4.75" style="5" customWidth="1"/>
+    <col min="17" max="17" width="5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9" style="5"/>
+    <col min="19" max="19" width="4.875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:16">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="F3" s="12">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="I3" s="12">
+      <c r="G3" s="17"/>
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="L3" s="12">
+      <c r="J3" s="17"/>
+      <c r="L3" s="16">
         <v>2</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="O3" s="12">
+      <c r="M3" s="21"/>
+      <c r="O3" s="16">
         <v>4</v>
       </c>
-      <c r="P3" s="15"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="14" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:19">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="I9" s="12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="I9" s="16">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="L9" s="12">
+      <c r="J9" s="17"/>
+      <c r="L9" s="16">
         <v>1</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="O9" s="12">
+      <c r="M9" s="17"/>
+      <c r="O9" s="16">
         <v>2</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="R9" s="12">
+      <c r="P9" s="21"/>
+      <c r="R9" s="16">
         <v>4</v>
       </c>
-      <c r="S9" s="15"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="69" customHeight="1" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="6:9">
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="1" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="19"/>
+      <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="14"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="14"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="14"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="18"/>
-    </row>
-    <row r="24" spans="3:20">
-      <c r="C24" s="8"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="19"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="22"/>
+    </row>
+    <row r="24" ht="72" customHeight="1" spans="3:20">
+      <c r="C24" s="10"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="25" spans="3:20">
-      <c r="C25" s="9"/>
-      <c r="F25" s="14" t="s">
+      <c r="C25" s="11"/>
+      <c r="F25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="19"/>
+      <c r="T25" s="23"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="9"/>
-      <c r="T26" s="19"/>
+      <c r="C26" s="11"/>
+      <c r="T26" s="23"/>
     </row>
     <row r="27" ht="32" customHeight="1" spans="3:20">
-      <c r="C27" s="9"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="I27" s="12">
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="16">
         <v>0</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="L27" s="12">
+      <c r="J27" s="17"/>
+      <c r="L27" s="16">
         <v>1</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="O27" s="12">
+      <c r="M27" s="17"/>
+      <c r="O27" s="16">
         <v>2</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="R27" s="12">
+      <c r="P27" s="21"/>
+      <c r="R27" s="16">
         <v>4</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="23"/>
     </row>
     <row r="28" spans="3:20">
-      <c r="C28" s="9"/>
-      <c r="T28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="T28" s="23"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="9"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="11"/>
+      <c r="F29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="19"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="3:20">
-      <c r="C30" s="9"/>
-      <c r="T30" s="19"/>
+      <c r="C30" s="11"/>
+      <c r="T30" s="23"/>
     </row>
     <row r="31" ht="32" customHeight="1" spans="3:20">
-      <c r="C31" s="9"/>
-      <c r="O31" s="12">
+      <c r="C31" s="11"/>
+      <c r="O31" s="16">
         <v>8</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="T31" s="19"/>
-    </row>
-    <row r="32" spans="3:20">
-      <c r="C32" s="9"/>
-      <c r="O32" s="1" t="s">
+      <c r="P31" s="21"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="3:20">
+      <c r="C32" s="11"/>
+      <c r="O32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T32" s="19"/>
-    </row>
-    <row r="33" spans="3:20">
-      <c r="C33" s="9"/>
-      <c r="T33" s="19"/>
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" ht="98.25" spans="3:20">
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="23"/>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="9"/>
-      <c r="T34" s="19"/>
+      <c r="C34" s="13"/>
+      <c r="T34" s="23"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="C35" s="9"/>
-      <c r="I35" s="14" t="s">
+      <c r="C35" s="11"/>
+      <c r="I35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="T35" s="19"/>
+      <c r="T35" s="23"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="C36" s="9"/>
-      <c r="T36" s="19"/>
+      <c r="C36" s="11"/>
+      <c r="T36" s="23"/>
     </row>
     <row r="37" ht="32" customHeight="1" spans="3:20">
-      <c r="C37" s="9"/>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="I37" s="12">
+      <c r="C37" s="11"/>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="I37" s="16">
         <v>0</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="L37" s="12">
+      <c r="J37" s="17"/>
+      <c r="L37" s="16">
         <v>1</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="O37" s="12">
+      <c r="M37" s="17"/>
+      <c r="O37" s="16">
         <v>2</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="R37" s="12">
+      <c r="P37" s="21"/>
+      <c r="R37" s="16">
         <v>4</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="23"/>
     </row>
     <row r="38" spans="3:20">
-      <c r="C38" s="9"/>
-      <c r="T38" s="19"/>
+      <c r="C38" s="11"/>
+      <c r="T38" s="23"/>
     </row>
     <row r="39" spans="3:20">
-      <c r="C39" s="9"/>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="11"/>
+      <c r="F39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T39" s="19"/>
+      <c r="T39" s="23"/>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="9"/>
-      <c r="T40" s="19"/>
+      <c r="C40" s="11"/>
+      <c r="T40" s="23"/>
     </row>
     <row r="41" ht="33" customHeight="1" spans="3:20">
-      <c r="C41" s="9"/>
-      <c r="O41" s="12">
+      <c r="C41" s="11"/>
+      <c r="O41" s="16">
         <v>8</v>
       </c>
-      <c r="P41" s="17"/>
-      <c r="T41" s="19"/>
+      <c r="P41" s="21"/>
+      <c r="T41" s="23"/>
     </row>
     <row r="42" spans="3:20">
-      <c r="C42" s="9"/>
-      <c r="O42" s="1" t="s">
+      <c r="C42" s="11"/>
+      <c r="O42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T42" s="19"/>
+      <c r="T42" s="23"/>
     </row>
     <row r="43" spans="3:20">
-      <c r="C43" s="9"/>
-      <c r="T43" s="19"/>
+      <c r="C43" s="11"/>
+      <c r="T43" s="23"/>
     </row>
     <row r="44" spans="3:20">
-      <c r="C44" s="9"/>
-      <c r="T44" s="19"/>
+      <c r="C44" s="11"/>
+      <c r="T44" s="23"/>
     </row>
     <row r="45" spans="3:20">
-      <c r="C45" s="9"/>
-      <c r="L45" s="14" t="s">
+      <c r="C45" s="11"/>
+      <c r="L45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="T45" s="19"/>
+      <c r="T45" s="23"/>
     </row>
     <row r="46" spans="3:20">
-      <c r="C46" s="9"/>
-      <c r="T46" s="19"/>
+      <c r="C46" s="11"/>
+      <c r="T46" s="23"/>
     </row>
     <row r="47" ht="33" customHeight="1" spans="3:20">
-      <c r="C47" s="9"/>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="I47" s="12">
+      <c r="C47" s="11"/>
+      <c r="D47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="I47" s="16">
         <v>0</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="L47" s="12">
+      <c r="J47" s="17"/>
+      <c r="L47" s="16">
         <v>1</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="O47" s="12">
+      <c r="M47" s="17"/>
+      <c r="O47" s="16">
         <v>2</v>
       </c>
-      <c r="P47" s="17"/>
-      <c r="R47" s="12">
+      <c r="P47" s="21"/>
+      <c r="R47" s="16">
         <v>4</v>
       </c>
-      <c r="S47" s="15"/>
-      <c r="T47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="23"/>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="9"/>
-      <c r="T48" s="19"/>
+      <c r="C48" s="11"/>
+      <c r="T48" s="23"/>
     </row>
     <row r="49" spans="3:20">
-      <c r="C49" s="9"/>
-      <c r="F49" s="14" t="s">
+      <c r="C49" s="11"/>
+      <c r="F49" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="19"/>
+      <c r="T49" s="23"/>
     </row>
     <row r="50" spans="3:20">
-      <c r="C50" s="9"/>
-      <c r="T50" s="19"/>
+      <c r="C50" s="11"/>
+      <c r="T50" s="23"/>
     </row>
     <row r="51" ht="31" customHeight="1" spans="3:20">
-      <c r="C51" s="9"/>
-      <c r="O51" s="12">
+      <c r="C51" s="11"/>
+      <c r="O51" s="16">
         <v>8</v>
       </c>
-      <c r="P51" s="17"/>
-      <c r="T51" s="19"/>
+      <c r="P51" s="21"/>
+      <c r="T51" s="23"/>
     </row>
     <row r="52" spans="3:20">
-      <c r="C52" s="9"/>
-      <c r="O52" s="1" t="s">
+      <c r="C52" s="11"/>
+      <c r="O52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T52" s="19"/>
+      <c r="T52" s="23"/>
     </row>
     <row r="53" spans="3:20">
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="20"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5023,4 +5082,181 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C10"/>
+    <mergeCell ref="A12:C19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>